--- a/biology/Histoire de la zoologie et de la botanique/Marcel_Bon/Marcel_Bon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Marcel_Bon/Marcel_Bon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marcel Elphège Georges Bon, né le 17 mars 1925 à Villers-sur-Authie (Somme) et mort le 11 mai 2014 à Woincourt (enterré à Port-le-Grand), est un mycologue français[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marcel Elphège Georges Bon, né le 17 mars 1925 à Villers-sur-Authie (Somme) et mort le 11 mai 2014 à Woincourt (enterré à Port-le-Grand), est un mycologue français. 
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Dédicaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux espèces de champignons, Ramaria bonii Estrada et Marasmiellus bonii, Segedin lui sont dédiés, ainsi que le genre Bonomyces, Vizzini.
 </t>
@@ -568,7 +584,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Vide (voir Boletus persoonii)
 Bon M., 1986. Fungorum Rariorum Icones Coloratae, Part 15 Corinarius. Lubrecht &amp; Cramer Ltd.
@@ -600,7 +618,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les Tricholomes de France et d'Europe Occidentale, Paris, Lechevallier, 1984, 324 p.  (ISBN 2720505056)
 (en) The Mushrooms and Toadstools of Britain and North Western Europe, Hodder and Stoughton,  (ISBN 0 340 39935 X),  (ISBN 0 340 39953 8)
